--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H2">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>13.59073186958483</v>
+        <v>3.311008580472889</v>
       </c>
       <c r="R2">
-        <v>13.59073186958483</v>
+        <v>29.799077224256</v>
       </c>
       <c r="S2">
-        <v>0.3528095784173099</v>
+        <v>0.06590122147478844</v>
       </c>
       <c r="T2">
-        <v>0.3528095784173099</v>
+        <v>0.06590122147478845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H3">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>20.29664418123468</v>
+        <v>4.888195525337777</v>
       </c>
       <c r="R3">
-        <v>20.29664418123468</v>
+        <v>43.99375972804</v>
       </c>
       <c r="S3">
-        <v>0.5268921898822145</v>
+        <v>0.09729302963067099</v>
       </c>
       <c r="T3">
-        <v>0.5268921898822145</v>
+        <v>0.09729302963067102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H4">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>0.8677070130275446</v>
+        <v>0.01893005043644444</v>
       </c>
       <c r="R4">
-        <v>0.8677070130275446</v>
+        <v>0.170370453928</v>
       </c>
       <c r="S4">
-        <v>0.02252530241885664</v>
+        <v>0.0003767774730933699</v>
       </c>
       <c r="T4">
-        <v>0.02252530241885664</v>
+        <v>0.00037677747309337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.196752963708953</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H5">
-        <v>0.196752963708953</v>
+        <v>1.266968</v>
       </c>
       <c r="I5">
-        <v>0.09777292928161892</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J5">
-        <v>0.09777292928161892</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>1.472806247004233</v>
+        <v>0.2051735017911111</v>
       </c>
       <c r="R5">
-        <v>1.472806247004233</v>
+        <v>1.84656151612</v>
       </c>
       <c r="S5">
-        <v>0.03823341936859338</v>
+        <v>0.004083705630374046</v>
       </c>
       <c r="T5">
-        <v>0.03823341936859338</v>
+        <v>0.004083705630374047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H6">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I6">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J6">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>2.199515421994544</v>
+        <v>14.69988785336978</v>
       </c>
       <c r="R6">
-        <v>2.199515421994544</v>
+        <v>132.298990680328</v>
       </c>
       <c r="S6">
-        <v>0.05709847830144646</v>
+        <v>0.2925817138598643</v>
       </c>
       <c r="T6">
-        <v>0.05709847830144646</v>
+        <v>0.2925817138598644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H7">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>0.09403204489791696</v>
+        <v>21.70212618946056</v>
       </c>
       <c r="R7">
-        <v>0.09403204489791696</v>
+        <v>195.319135705145</v>
       </c>
       <c r="S7">
-        <v>0.002441031611579066</v>
+        <v>0.4319519535286681</v>
       </c>
       <c r="T7">
-        <v>0.002441031611579066</v>
+        <v>0.4319519535286682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.624959</v>
+      </c>
+      <c r="I8">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J8">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.134471</v>
+      </c>
+      <c r="O8">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P8">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q8">
+        <v>0.08404376240988891</v>
+      </c>
+      <c r="R8">
+        <v>0.7563938616890001</v>
+      </c>
+      <c r="S8">
+        <v>0.001672779295352218</v>
+      </c>
+      <c r="T8">
+        <v>0.001672779295352218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.624959</v>
+      </c>
+      <c r="I9">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J9">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.457465</v>
+      </c>
+      <c r="O9">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P9">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q9">
+        <v>0.9109089854372222</v>
+      </c>
+      <c r="R9">
+        <v>8.198180868935001</v>
+      </c>
+      <c r="S9">
+        <v>0.01813043165961821</v>
+      </c>
+      <c r="T9">
+        <v>0.01813043165961822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.66508</v>
+      </c>
+      <c r="I10">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J10">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.519992</v>
+      </c>
+      <c r="O10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q10">
+        <v>1.738075142151111</v>
+      </c>
+      <c r="R10">
+        <v>15.64267627936</v>
+      </c>
+      <c r="S10">
+        <v>0.03459407370861167</v>
+      </c>
+      <c r="T10">
+        <v>0.03459407370861167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.66508</v>
+      </c>
+      <c r="I11">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J11">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N11">
+        <v>34.723655</v>
+      </c>
+      <c r="O11">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P11">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q11">
+        <v>2.566000940822222</v>
+      </c>
+      <c r="R11">
+        <v>23.0940084674</v>
+      </c>
+      <c r="S11">
+        <v>0.05107283542028423</v>
+      </c>
+      <c r="T11">
+        <v>0.05107283542028425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.66508</v>
+      </c>
+      <c r="I12">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J12">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.134471</v>
+      </c>
+      <c r="O12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q12">
+        <v>0.009937108075555557</v>
+      </c>
+      <c r="R12">
+        <v>0.08943397268</v>
+      </c>
+      <c r="S12">
+        <v>0.0001977849178550196</v>
+      </c>
+      <c r="T12">
+        <v>0.0001977849178550197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66508</v>
+      </c>
+      <c r="I13">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J13">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.457465</v>
+      </c>
+      <c r="O13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q13">
+        <v>0.1077034246888889</v>
+      </c>
+      <c r="R13">
+        <v>0.9693308222</v>
+      </c>
+      <c r="S13">
+        <v>0.002143693400819256</v>
+      </c>
+      <c r="T13">
+        <v>0.002143693400819256</v>
       </c>
     </row>
   </sheetData>
